--- a/automatic_testing/submission_information.xlsx
+++ b/automatic_testing/submission_information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kian199887/Downloads/github_francistan88/DSA/automatic_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00401B0-88D3-ED48-94ED-7C4DD5EAA7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02C1FDE-0028-6941-B2AA-852F67A0A465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="760" windowWidth="34560" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -47,15 +47,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First </t>
-  </si>
-  <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t>Third</t>
   </si>
   <si>
     <t>Product Name</t>
@@ -135,16 +126,38 @@
   </si>
   <si>
     <t>0163662970</t>
+  </si>
+  <si>
+    <t>ANDRINA ENTERPRISE</t>
+  </si>
+  <si>
+    <t>0165941645</t>
+  </si>
+  <si>
+    <t>BINA IDOLA ENTERPRISE</t>
+  </si>
+  <si>
+    <t>0139818433</t>
+  </si>
+  <si>
+    <t>STRIVE ENGINEERING SDN. BHD.</t>
+  </si>
+  <si>
+    <t>0124772945</t>
+  </si>
+  <si>
+    <t>H227000755VA2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +190,12 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -226,49 +245,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -574,44 +578,43 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="12.3984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" style="13" customWidth="1"/>
-    <col min="4" max="4" width="21.796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="12" customWidth="1"/>
-    <col min="9" max="14" width="12.3984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.3984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="28" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="3" customWidth="1"/>
+    <col min="9" max="11" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33" customHeight="1">
+    <row r="1" spans="1:11" ht="33" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -626,267 +629,244 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="33" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="C2" s="9">
+        <v>880520435314</v>
+      </c>
+      <c r="D2" s="2">
+        <v>930930090909</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="33" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="G2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5">
+      <c r="J2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="33" customHeight="1">
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="J3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="33" customHeight="1">
+      <c r="C4" s="4">
+        <v>930930090909</v>
+      </c>
+      <c r="D4" s="2">
+        <v>950607123456</v>
+      </c>
+      <c r="E4" s="2">
+        <v>201803299728</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="33" customHeight="1">
+      <c r="C5" s="4">
+        <v>970118123456</v>
+      </c>
+      <c r="D5" s="2">
+        <v>990513123456</v>
+      </c>
+      <c r="E5" s="2">
+        <v>201803022121</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="33" customHeight="1">
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="J6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="33" customHeight="1">
+      <c r="C7" s="4">
+        <v>980513123456</v>
+      </c>
+      <c r="D7" s="2">
+        <v>860824235356</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="33" customHeight="1">
+      <c r="C8" s="4">
+        <v>891007777777</v>
+      </c>
+      <c r="D8" s="2">
+        <v>800225777777</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="33" customHeight="1">
+      <c r="C9" s="4">
+        <v>891007666666</v>
+      </c>
+      <c r="D9" s="2">
+        <v>800225666666</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="33" customHeight="1">
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="33" customHeight="1">
+      <c r="A11" s="12">
+        <v>44764</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="9">
         <v>880520435314</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D11" s="2">
         <v>930930090909</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3">
+        <v>70</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="33" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="33" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5">
-        <v>930930090909</v>
-      </c>
-      <c r="D4" s="5">
-        <v>950607123456</v>
-      </c>
-      <c r="E4" s="5">
-        <v>201803299728</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="33" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5">
-        <v>970118123456</v>
-      </c>
-      <c r="D5" s="5">
-        <v>990513123456</v>
-      </c>
-      <c r="E5" s="5">
-        <v>201803022121</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="33" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="33" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="5">
-        <v>980513123456</v>
-      </c>
-      <c r="D7" s="5">
-        <v>860824235356</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="H7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="33" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="5">
-        <v>891007777777</v>
-      </c>
-      <c r="D8" s="5">
-        <v>800225777777</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="H8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="33" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5">
-        <v>891007666666</v>
-      </c>
-      <c r="D9" s="5">
-        <v>800225666666</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="H9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="33" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" ht="33" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="33" customHeight="1">
+      <c r="C12" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="G2 G4" numberStoredAsText="1"/>
+    <ignoredError sqref="G2 G4:G5 G7:G9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/automatic_testing/submission_information.xlsx
+++ b/automatic_testing/submission_information.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kian199887/Downloads/github_francistan88/DSA/automatic_testing/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02C1FDE-0028-6941-B2AA-852F67A0A465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="760" windowWidth="34560" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -58,12 +52,21 @@
     <t>H227000736VA2</t>
   </si>
   <si>
+    <t>880520435314</t>
+  </si>
+  <si>
+    <t>930930090909</t>
+  </si>
+  <si>
     <t>SA0474754-U</t>
   </si>
   <si>
     <t>ME AIRCOND TRADING</t>
   </si>
   <si>
+    <t>01116280047</t>
+  </si>
+  <si>
     <t>C000000002316</t>
   </si>
   <si>
@@ -76,15 +79,33 @@
     <t>SC009</t>
   </si>
   <si>
+    <t>950607123456</t>
+  </si>
+  <si>
     <t>GKS KOKHILA ENTERPRISE</t>
   </si>
   <si>
+    <t>0163662970</t>
+  </si>
+  <si>
     <t>C000000002318</t>
   </si>
   <si>
     <t>SC0010</t>
   </si>
   <si>
+    <t>970118123456</t>
+  </si>
+  <si>
+    <t>990513123456</t>
+  </si>
+  <si>
+    <t>ANDRINA ENTERPRISE</t>
+  </si>
+  <si>
+    <t>0165941645</t>
+  </si>
+  <si>
     <t>C000000002332</t>
   </si>
   <si>
@@ -94,9 +115,21 @@
     <t>SC0012</t>
   </si>
   <si>
+    <t>980513123456</t>
+  </si>
+  <si>
+    <t>860824235356</t>
+  </si>
+  <si>
     <t>MA0058640-V</t>
   </si>
   <si>
+    <t>BINA IDOLA ENTERPRISE</t>
+  </si>
+  <si>
+    <t>0139818433</t>
+  </si>
+  <si>
     <t>C000000002317</t>
   </si>
   <si>
@@ -106,109 +139,92 @@
     <t>Y</t>
   </si>
   <si>
+    <t>891007777777</t>
+  </si>
+  <si>
+    <t>800225777777</t>
+  </si>
+  <si>
     <t>556097-H</t>
   </si>
   <si>
+    <t>STRIVE ENGINEERING SDN. BHD.</t>
+  </si>
+  <si>
+    <t>0124772945</t>
+  </si>
+  <si>
     <t>C000000002331</t>
   </si>
   <si>
     <t>SC0014</t>
   </si>
   <si>
+    <t>891007666666</t>
+  </si>
+  <si>
+    <t>800225666666</t>
+  </si>
+  <si>
     <t>002740725-P</t>
   </si>
   <si>
     <t>SC0015</t>
   </si>
   <si>
-    <t>01116280047</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0163662970</t>
-  </si>
-  <si>
-    <t>ANDRINA ENTERPRISE</t>
-  </si>
-  <si>
-    <t>0165941645</t>
-  </si>
-  <si>
-    <t>BINA IDOLA ENTERPRISE</t>
-  </si>
-  <si>
-    <t>0139818433</t>
-  </si>
-  <si>
-    <t>STRIVE ENGINEERING SDN. BHD.</t>
-  </si>
-  <si>
-    <t>0124772945</t>
-  </si>
-  <si>
     <t>H227000755VA2</t>
+  </si>
+  <si>
+    <t>H227000779VA2</t>
+  </si>
+  <si>
+    <t>H227000780VA2</t>
+  </si>
+  <si>
+    <t>H227000781VA2</t>
+  </si>
+  <si>
+    <t>H227000785VA2</t>
+  </si>
+  <si>
+    <t>H227000786VA2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="6">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -221,16 +237,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -245,46 +261,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -295,34 +309,34 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -336,71 +350,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,7 +442,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -451,11 +465,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -464,13 +478,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -480,7 +494,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -489,7 +503,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -498,7 +512,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -506,10 +520,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -574,299 +588,533 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="33" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.3984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="3" customWidth="1"/>
-    <col min="9" max="11" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="33" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9">
-        <v>880520435314</v>
-      </c>
-      <c r="D2" s="2">
-        <v>930930090909</v>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6">
+        <v>201803299728</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6">
+        <v>201803022</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
+      <c r="A11" s="4">
+        <v>44767</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="6">
+        <v>70</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
+      <c r="A12" s="4">
+        <v>44764</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="6">
+        <v>70</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
+      <c r="A13" s="4">
+        <v>44767</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="33" customHeight="1">
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="J3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="33" customHeight="1">
-      <c r="C4" s="4">
-        <v>930930090909</v>
-      </c>
-      <c r="D4" s="2">
-        <v>950607123456</v>
-      </c>
-      <c r="E4" s="2">
-        <v>201803299728</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="E13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="6">
+        <v>70</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="33" customHeight="1">
-      <c r="C5" s="4">
-        <v>970118123456</v>
-      </c>
-      <c r="D5" s="2">
-        <v>990513123456</v>
-      </c>
-      <c r="E5" s="2">
-        <v>201803022121</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
+      <c r="A14" s="4">
+        <v>44767</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="6">
+        <v>10</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
+      <c r="A15" s="4">
+        <v>44767</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="33" customHeight="1">
-      <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="J6" s="8" t="s">
+      <c r="G15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="33" customHeight="1">
-      <c r="C7" s="4">
-        <v>980513123456</v>
-      </c>
-      <c r="D7" s="2">
-        <v>860824235356</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
+      <c r="A16" s="4">
+        <v>44767</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="33" customHeight="1">
-      <c r="C8" s="4">
-        <v>891007777777</v>
-      </c>
-      <c r="D8" s="2">
-        <v>800225777777</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="E16" s="6">
+        <v>201803022</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="H16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
+      <c r="A17" s="4">
+        <v>44767</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="33" customHeight="1">
-      <c r="C9" s="4">
-        <v>891007666666</v>
-      </c>
-      <c r="D9" s="2">
-        <v>800225666666</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="E17" s="6">
+        <v>201803022</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="K17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="33" customHeight="1">
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="33" customHeight="1">
-      <c r="A11" s="12">
-        <v>44764</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="9">
-        <v>880520435314</v>
-      </c>
-      <c r="D11" s="2">
-        <v>930930090909</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="3">
-        <v>70</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="33" customHeight="1">
-      <c r="C12" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="G2 G4:G5 G7:G9" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>